--- a/result/back_testing_m2.xlsx
+++ b/result/back_testing_m2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\kra2\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="45" windowWidth="21000" windowHeight="9915"/>
+    <workbookView xWindow="5832" yWindow="48" windowWidth="21000" windowHeight="9912"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="2nw" sheetId="5" r:id="rId5"/>
     <sheet name="4nw" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -254,41 +249,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -366,7 +340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,7 +375,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -610,20 +584,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X47"/>
+  <dimension ref="B1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="13" width="6.25" customWidth="1"/>
-    <col min="15" max="24" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" customWidth="1"/>
+    <col min="3" max="13" width="6.19921875" customWidth="1"/>
+    <col min="15" max="24" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -631,33 +605,33 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1000</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>1110</v>
       </c>
       <c r="F4">
@@ -681,13 +655,13 @@
       <c r="L4">
         <v>800</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>900</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <v>1000</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>1110</v>
       </c>
       <c r="Q4">
@@ -711,11 +685,11 @@
       <c r="W4">
         <v>800</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="2">
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -723,11 +697,11 @@
         <f>SUM(C6:C100)</f>
         <v>-3139</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f t="shared" ref="D5:M5" si="0">SUM(D6:D100)</f>
         <v>5466</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>1391</v>
       </c>
@@ -759,7 +733,7 @@
         <f t="shared" si="0"/>
         <v>-5417</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <f t="shared" si="0"/>
         <v>747</v>
       </c>
@@ -767,17 +741,17 @@
         <f t="shared" ref="N5" si="1">SUM(D5:M5)</f>
         <v>-3138</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <f t="shared" ref="O5:X5" si="2">SUM(O6:O100)</f>
-        <v>6106</v>
-      </c>
-      <c r="P5" s="3">
+        <v>5502</v>
+      </c>
+      <c r="P5" s="2">
         <f t="shared" si="2"/>
         <v>915</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>-310</v>
+        <v>-76</v>
       </c>
       <c r="R5">
         <f t="shared" si="2"/>
@@ -803,12 +777,12 @@
         <f t="shared" si="2"/>
         <v>-4775</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5" s="2">
         <f t="shared" si="2"/>
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -880,7 +854,7 @@
         <v>-69</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -928,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>-100</v>
+        <v>86</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -952,7 +926,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -1024,7 +998,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -1093,10 +1067,10 @@
         <v>-200</v>
       </c>
       <c r="X9">
-        <v>-116</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -1168,7 +1142,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -1240,7 +1214,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -1282,7 +1256,7 @@
         <v>-464</v>
       </c>
       <c r="O12">
-        <v>-70</v>
+        <v>-200</v>
       </c>
       <c r="P12">
         <v>-100</v>
@@ -1312,7 +1286,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1381,10 +1355,10 @@
         <v>-200</v>
       </c>
       <c r="X13">
-        <v>-21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -1456,7 +1430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -1504,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1528,7 +1502,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -1576,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -1600,7 +1574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -1672,7 +1646,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -1744,7 +1718,7 @@
         <v>-160</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -1816,7 +1790,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -1864,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>255</v>
+        <v>-100</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -1888,7 +1862,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -1960,7 +1934,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -2032,7 +2006,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -2104,7 +2078,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -2152,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>-100</v>
+        <v>168</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -2176,7 +2150,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -2245,10 +2219,10 @@
         <v>298</v>
       </c>
       <c r="X25">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -2320,7 +2294,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -2389,10 +2363,10 @@
         <v>111</v>
       </c>
       <c r="X27">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -2464,7 +2438,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -2512,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>-100</v>
+        <v>235</v>
       </c>
       <c r="R29">
         <v>-100</v>
@@ -2536,7 +2510,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -2608,7 +2582,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -2650,7 +2624,7 @@
         <v>-224</v>
       </c>
       <c r="O31">
-        <v>694</v>
+        <v>476</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2677,10 +2651,10 @@
         <v>-300</v>
       </c>
       <c r="X31">
-        <v>-32</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -2752,7 +2726,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -2824,7 +2798,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>31</v>
       </c>
@@ -2896,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>50</v>
       </c>
@@ -2968,7 +2942,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -3040,7 +3014,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -3112,7 +3086,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>35</v>
       </c>
@@ -3181,10 +3155,10 @@
         <v>-300</v>
       </c>
       <c r="X38">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>36</v>
       </c>
@@ -3256,7 +3230,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -3328,7 +3302,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -3400,7 +3374,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>39</v>
       </c>
@@ -3442,7 +3416,7 @@
         <v>-800</v>
       </c>
       <c r="O42">
-        <v>56</v>
+        <v>-200</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -3472,7 +3446,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>40</v>
       </c>
@@ -3544,7 +3518,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>41</v>
       </c>
@@ -3616,7 +3590,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>42</v>
       </c>
@@ -3688,7 +3662,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>43</v>
       </c>
@@ -3757,10 +3731,10 @@
         <v>-286</v>
       </c>
       <c r="X46">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -3829,7 +3803,21 @@
         <v>108</v>
       </c>
       <c r="X47">
-        <v>332</v>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3838,7 +3826,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$N1&lt;&gt;$C1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3855,14 +3843,14 @@
       <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="13" width="6.25" customWidth="1"/>
-    <col min="15" max="24" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" customWidth="1"/>
+    <col min="3" max="13" width="6.19921875" customWidth="1"/>
+    <col min="15" max="24" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3870,23 +3858,23 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -3954,7 +3942,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -4047,7 +4035,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -4119,7 +4107,7 @@
         <v>-69</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -4191,7 +4179,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -4263,7 +4251,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -4335,7 +4323,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -4407,7 +4395,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -4479,7 +4467,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -4551,7 +4539,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -4623,7 +4611,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -4695,7 +4683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -4767,7 +4755,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -4839,7 +4827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -4911,7 +4899,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -4983,7 +4971,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -5055,7 +5043,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -5127,7 +5115,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -5199,7 +5187,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -5271,7 +5259,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -5343,7 +5331,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -5415,7 +5403,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -5487,7 +5475,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -5559,7 +5547,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -5631,7 +5619,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -5703,7 +5691,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -5775,7 +5763,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -5847,7 +5835,7 @@
         <v>-79</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -5919,7 +5907,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -5991,7 +5979,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -6063,7 +6051,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>31</v>
       </c>
@@ -6135,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -6207,7 +6195,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -6279,7 +6267,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -6351,7 +6339,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>35</v>
       </c>
@@ -6423,7 +6411,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>36</v>
       </c>
@@ -6495,7 +6483,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -6567,7 +6555,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -6639,7 +6627,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>39</v>
       </c>
@@ -6711,7 +6699,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>40</v>
       </c>
@@ -6783,7 +6771,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>41</v>
       </c>
@@ -6855,7 +6843,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>42</v>
       </c>
@@ -6927,7 +6915,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>43</v>
       </c>
@@ -6999,7 +6987,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -7077,7 +7065,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$N1&lt;&gt;$C1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7094,14 +7082,14 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="13" width="6.25" customWidth="1"/>
-    <col min="15" max="24" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" customWidth="1"/>
+    <col min="3" max="13" width="6.19921875" customWidth="1"/>
+    <col min="15" max="24" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7109,23 +7097,23 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -7193,7 +7181,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -7286,7 +7274,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -7358,7 +7346,7 @@
         <v>-69</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -7430,7 +7418,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -7502,7 +7490,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -7574,7 +7562,7 @@
         <v>-116</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -7646,7 +7634,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -7718,7 +7706,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -7790,7 +7778,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -7862,7 +7850,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -7934,7 +7922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -8006,7 +7994,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -8078,7 +8066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -8150,7 +8138,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -8222,7 +8210,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -8294,7 +8282,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -8366,7 +8354,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -8438,7 +8426,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -8510,7 +8498,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -8582,7 +8570,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -8654,7 +8642,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -8726,7 +8714,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -8798,7 +8786,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -8870,7 +8858,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -8942,7 +8930,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -9014,7 +9002,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -9086,7 +9074,7 @@
         <v>-79</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -9158,7 +9146,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -9230,7 +9218,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -9302,7 +9290,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>31</v>
       </c>
@@ -9374,7 +9362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -9446,7 +9434,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -9518,7 +9506,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -9590,7 +9578,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>35</v>
       </c>
@@ -9662,7 +9650,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>36</v>
       </c>
@@ -9734,7 +9722,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -9806,7 +9794,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -9878,7 +9866,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>39</v>
       </c>
@@ -9950,7 +9938,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>40</v>
       </c>
@@ -10022,7 +10010,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>41</v>
       </c>
@@ -10094,7 +10082,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>42</v>
       </c>
@@ -10166,7 +10154,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>43</v>
       </c>
@@ -10238,7 +10226,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -10316,7 +10304,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$N1&lt;&gt;$C1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10332,13 +10320,13 @@
       <selection activeCell="C6" sqref="C6:M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="13" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" customWidth="1"/>
+    <col min="3" max="13" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -10346,21 +10334,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -10398,7 +10386,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -10447,212 +10435,212 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -10674,13 +10662,13 @@
       <selection activeCell="C6" sqref="C6:M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="13" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" customWidth="1"/>
+    <col min="3" max="13" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -10688,21 +10676,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -10740,7 +10728,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -10789,212 +10777,212 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -11017,13 +11005,13 @@
       <selection activeCell="C6" sqref="C6:M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="13" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" customWidth="1"/>
+    <col min="3" max="13" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -11031,21 +11019,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -11083,7 +11071,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -11132,212 +11120,212 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>44</v>
       </c>
